--- a/data/trans_dic/P36B02_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B02_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>91,67; 96,0</t>
+          <t>92,08; 96,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>91,8; 96,45</t>
+          <t>92,56; 96,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>92,32; 96,81</t>
+          <t>92,32; 96,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>91,02; 95,41</t>
+          <t>90,81; 95,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>89,22; 94,67</t>
+          <t>89,34; 94,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>88,58; 94,01</t>
+          <t>88,81; 94,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>92,1; 95,09</t>
+          <t>92,15; 95,24</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>91,84; 95,09</t>
+          <t>91,77; 95,05</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>91,39; 94,86</t>
+          <t>91,18; 94,94</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>92,36; 95,83</t>
+          <t>92,21; 95,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>90,72; 94,67</t>
+          <t>90,74; 94,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,67; 91,77</t>
+          <t>86,76; 91,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>92,06; 96,0</t>
+          <t>92,15; 96,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>89,55; 93,84</t>
+          <t>89,03; 93,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>91,49; 95,47</t>
+          <t>91,72; 95,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>92,91; 95,56</t>
+          <t>92,93; 95,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>90,72; 93,61</t>
+          <t>90,71; 93,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>89,75; 93,01</t>
+          <t>90,05; 93,09</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>89,22; 93,69</t>
+          <t>89,22; 93,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,44; 95,18</t>
+          <t>91,53; 95,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88,2; 92,91</t>
+          <t>88,17; 92,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>92,48; 96,05</t>
+          <t>92,51; 95,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>92,18; 95,75</t>
+          <t>91,84; 95,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>92,0; 95,8</t>
+          <t>92,15; 95,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>91,64; 94,41</t>
+          <t>91,59; 94,5</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>92,3; 94,98</t>
+          <t>92,27; 95,11</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>90,77; 93,77</t>
+          <t>90,81; 93,7</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>88,53; 93,72</t>
+          <t>88,72; 94,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>89,65; 94,26</t>
+          <t>89,64; 94,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,96; 92,03</t>
+          <t>86,96; 92,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,05; 96,08</t>
+          <t>92,02; 96,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,35; 95,67</t>
+          <t>91,16; 95,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,75; 94,66</t>
+          <t>90,66; 94,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91,17; 94,49</t>
+          <t>91,08; 94,56</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>91,44; 94,52</t>
+          <t>91,49; 94,54</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>89,44; 92,81</t>
+          <t>89,43; 92,54</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>89,1; 94,55</t>
+          <t>89,32; 94,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>87,7; 93,5</t>
+          <t>87,65; 93,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>89,15; 94,38</t>
+          <t>88,96; 94,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>89,26; 94,63</t>
+          <t>89,11; 94,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>93,06; 97,45</t>
+          <t>93,39; 97,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>91,42; 96,13</t>
+          <t>91,39; 96,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>90,02; 93,96</t>
+          <t>89,9; 93,91</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>91,31; 94,89</t>
+          <t>91,33; 95,05</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>90,99; 94,53</t>
+          <t>90,99; 94,69</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>90,91; 95,27</t>
+          <t>90,8; 95,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>92,44; 96,72</t>
+          <t>92,74; 96,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>93,52; 96,75</t>
+          <t>93,56; 96,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>94,38; 97,2</t>
+          <t>94,27; 97,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>95,11; 97,78</t>
+          <t>95,2; 97,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>94,93; 97,75</t>
+          <t>94,86; 97,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>93,55; 96,04</t>
+          <t>93,49; 96,01</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>94,74; 97,06</t>
+          <t>94,64; 96,99</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>94,76; 96,98</t>
+          <t>94,84; 96,89</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>91,86; 93,75</t>
+          <t>91,91; 93,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>92,32; 94,2</t>
+          <t>92,34; 94,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>90,71; 92,7</t>
+          <t>90,77; 92,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,53; 95,05</t>
+          <t>93,44; 95,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>93,33; 94,96</t>
+          <t>93,36; 94,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>93,2; 94,76</t>
+          <t>93,25; 94,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>92,93; 94,19</t>
+          <t>92,97; 94,2</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>93,16; 94,36</t>
+          <t>93,14; 94,35</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>92,26; 93,52</t>
+          <t>92,27; 93,59</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P36B02_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B02_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>92,08; 96,18</t>
+          <t>91,71; 96,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>92,56; 96,46</t>
+          <t>92,31; 96,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>92,32; 96,69</t>
+          <t>92,0; 96,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>80,86; 91,68</t>
+          <t>80,99; 92,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>90,81; 95,23</t>
+          <t>90,92; 95,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>89,34; 94,51</t>
+          <t>89,55; 94,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>88,81; 94,05</t>
+          <t>88,73; 93,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>86,91; 94,86</t>
+          <t>86,14; 94,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>92,15; 95,24</t>
+          <t>92,18; 95,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>91,77; 95,05</t>
+          <t>91,85; 95,04</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>91,18; 94,94</t>
+          <t>91,4; 94,77</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>85,26; 92,12</t>
+          <t>85,25; 92,01</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>92,21; 95,76</t>
+          <t>92,21; 95,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>90,74; 94,84</t>
+          <t>90,4; 94,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,76; 91,72</t>
+          <t>86,5; 91,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>80,77; 89,77</t>
+          <t>81,52; 89,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>92,15; 96,01</t>
+          <t>92,21; 96,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>89,03; 93,81</t>
+          <t>89,17; 93,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>91,72; 95,51</t>
+          <t>91,63; 95,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>76,49; 90,07</t>
+          <t>77,34; 90,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>92,93; 95,43</t>
+          <t>93,05; 95,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>90,71; 93,8</t>
+          <t>90,82; 93,72</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>90,05; 93,09</t>
+          <t>89,91; 93,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>81,06; 88,98</t>
+          <t>80,75; 88,75</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>89,22; 93,96</t>
+          <t>89,1; 93,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,53; 95,35</t>
+          <t>91,18; 95,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88,17; 92,84</t>
+          <t>87,91; 92,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>83,8; 90,26</t>
+          <t>84,19; 90,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>92,51; 95,98</t>
+          <t>92,45; 96,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>91,84; 95,65</t>
+          <t>91,96; 95,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>92,15; 95,69</t>
+          <t>92,24; 95,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>85,22; 90,04</t>
+          <t>85,15; 89,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>91,59; 94,5</t>
+          <t>91,53; 94,44</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>92,27; 95,11</t>
+          <t>92,37; 95,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>90,81; 93,7</t>
+          <t>90,67; 93,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>85,28; 89,38</t>
+          <t>85,52; 89,4</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>88,72; 94,01</t>
+          <t>88,29; 93,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>89,64; 94,37</t>
+          <t>89,67; 94,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,96; 92,19</t>
+          <t>86,92; 91,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>84,66; 90,79</t>
+          <t>84,95; 90,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,02; 96,17</t>
+          <t>92,0; 96,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,16; 95,61</t>
+          <t>91,34; 95,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,66; 94,86</t>
+          <t>90,43; 94,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>87,14; 90,85</t>
+          <t>87,31; 91,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91,08; 94,56</t>
+          <t>91,04; 94,5</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>91,49; 94,54</t>
+          <t>91,41; 94,6</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>89,43; 92,54</t>
+          <t>89,59; 92,67</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>86,78; 90,28</t>
+          <t>86,69; 90,44</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>89,32; 94,48</t>
+          <t>89,02; 94,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>87,65; 93,63</t>
+          <t>87,41; 93,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>88,96; 94,62</t>
+          <t>88,96; 94,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>81,58; 87,71</t>
+          <t>81,7; 87,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>89,11; 94,46</t>
+          <t>89,41; 94,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>93,39; 97,62</t>
+          <t>93,42; 97,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>91,39; 96,01</t>
+          <t>91,22; 96,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>84,85; 89,37</t>
+          <t>84,91; 89,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>89,9; 93,91</t>
+          <t>90,28; 93,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>91,33; 95,05</t>
+          <t>91,54; 95,09</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>90,99; 94,69</t>
+          <t>91,02; 94,61</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>84,23; 87,73</t>
+          <t>83,99; 87,73</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>90,8; 95,34</t>
+          <t>90,85; 95,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>92,74; 96,85</t>
+          <t>92,34; 96,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>93,56; 96,73</t>
+          <t>93,4; 96,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>86,79; 90,87</t>
+          <t>86,78; 91,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>94,27; 97,4</t>
+          <t>94,16; 97,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>95,2; 97,92</t>
+          <t>95,21; 97,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>94,86; 97,6</t>
+          <t>94,77; 97,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>89,88; 94,15</t>
+          <t>89,81; 94,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>93,49; 96,01</t>
+          <t>93,56; 96,11</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>94,64; 96,99</t>
+          <t>94,67; 97,12</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>94,84; 96,89</t>
+          <t>94,94; 96,96</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>89,2; 92,72</t>
+          <t>89,19; 92,61</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>91,91; 93,75</t>
+          <t>91,94; 93,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>92,34; 94,22</t>
+          <t>92,41; 94,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>90,77; 92,65</t>
+          <t>90,76; 92,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>85,61; 88,34</t>
+          <t>85,76; 88,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,44; 95,04</t>
+          <t>93,53; 95,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>93,36; 94,89</t>
+          <t>93,29; 94,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>93,25; 94,85</t>
+          <t>93,23; 94,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>87,79; 90,33</t>
+          <t>87,67; 90,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>92,97; 94,2</t>
+          <t>93,01; 94,18</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>93,14; 94,35</t>
+          <t>93,17; 94,35</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>92,27; 93,59</t>
+          <t>92,29; 93,51</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>87,23; 89,17</t>
+          <t>87,25; 89,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B02_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B02_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>87,15%</t>
+          <t>87,87%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>91,25%</t>
+          <t>91,32%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>89,14%</t>
+          <t>89,38%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>80,99; 92,45</t>
+          <t>82,12; 93,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>86,14; 94,45</t>
+          <t>86,34; 94,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>85,25; 92,01</t>
+          <t>85,36; 92,28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>85,69%</t>
+          <t>86,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>86,13%</t>
+          <t>76,66%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>85,93%</t>
+          <t>81,02%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>81,52; 89,9</t>
+          <t>82,05; 90,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>77,34; 90,07</t>
+          <t>48,5; 89,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>80,75; 88,75</t>
+          <t>59,44; 88,51</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>87,46%</t>
+          <t>87,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>87,8%</t>
+          <t>87,77%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>84,19; 90,28</t>
+          <t>84,21; 90,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>85,15; 89,83</t>
+          <t>85,17; 89,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>85,52; 89,4</t>
+          <t>85,56; 89,42</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>87,75%</t>
+          <t>90,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>89,19%</t>
+          <t>89,66%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>88,48%</t>
+          <t>90,22%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>84,95; 90,76</t>
+          <t>86,34; 96,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>87,31; 91,04</t>
+          <t>87,66; 91,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>86,69; 90,44</t>
+          <t>87,83; 94,72</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>84,74%</t>
+          <t>84,94%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>87,22%</t>
+          <t>87,31%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>85,98%</t>
+          <t>86,11%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>81,7; 87,44</t>
+          <t>81,88; 87,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>84,91; 89,11</t>
+          <t>85,09; 89,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>83,99; 87,73</t>
+          <t>84,11; 87,85</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>93,37%</t>
+          <t>91,95%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>95,16%</t>
+          <t>95,73%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>95,33%</t>
+          <t>96,15%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>88,86%</t>
+          <t>88,53%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,94%</t>
+          <t>94,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>97,45%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,53%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>91,59%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>94,84%</t>
+          <t>93,59%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>96,01%</t>
+          <t>96,65%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>96,01%</t>
+          <t>95,44%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>90,49%</t>
+          <t>91,7%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>90,85; 95,24</t>
+          <t>88,25; 94,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>92,34; 96,85</t>
+          <t>92,69; 97,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>93,4; 96,89</t>
+          <t>93,58; 97,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>86,78; 91,07</t>
+          <t>85,52; 91,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>94,16; 97,26</t>
+          <t>92,36; 96,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>95,21; 97,77</t>
+          <t>95,08; 98,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>94,77; 97,61</t>
+          <t>92,25; 96,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>89,81; 94,01</t>
+          <t>89,57; 97,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>93,56; 96,11</t>
+          <t>91,73; 95,44</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>94,67; 97,12</t>
+          <t>94,81; 97,89</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>94,94; 96,96</t>
+          <t>93,66; 96,76</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>89,19; 92,61</t>
+          <t>88,85; 96,41</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>92,88%</t>
+          <t>95,34%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>93,32%</t>
+          <t>94,46%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>91,75%</t>
+          <t>94,25%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>87,07%</t>
+          <t>89,68%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>94,31%</t>
+          <t>96,92%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>94,16%</t>
+          <t>95,94%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>94,06%</t>
+          <t>98,15%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>89,11%</t>
+          <t>91,07%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>93,61%</t>
+          <t>96,31%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>93,75%</t>
+          <t>95,36%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>92,93%</t>
+          <t>96,63%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>88,15%</t>
+          <t>90,51%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>91,48; 97,51</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>90,14; 97,03</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>91,0; 96,56</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>86,29; 92,24</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>94,32; 98,34</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>93,45; 97,72</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>95,74; 99,13</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>88,92; 93,11</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>94,27; 97,62</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>93,45; 96,92</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>94,96; 97,82</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>88,66; 92,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>92,88%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>93,32%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>91,75%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>88,08%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>94,31%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>94,16%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>94,06%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>88,17%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>93,61%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>93,75%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>92,93%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>88,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>91,94; 93,78</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>92,41; 94,13</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>90,76; 92,69</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>85,76; 88,38</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>86,5; 90,64</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>93,53; 95,16</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>93,29; 94,94</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>93,23; 94,79</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>87,67; 90,32</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>81,96; 90,48</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>93,01; 94,18</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>93,17; 94,35</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>92,29; 93,51</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>87,25; 89,03</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>85,34; 89,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P36B02_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B02_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>91,71; 96,03</t>
+          <t>91,51; 95,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>92,31; 96,4</t>
+          <t>92,32; 96,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>92,0; 96,73</t>
+          <t>92,28; 96,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>82,12; 93,09</t>
+          <t>80,92; 92,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>90,92; 95,22</t>
+          <t>90,92; 95,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>89,55; 94,59</t>
+          <t>89,51; 94,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>88,73; 93,98</t>
+          <t>88,44; 93,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>86,34; 94,4</t>
+          <t>86,6; 94,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>92,18; 95,11</t>
+          <t>92,15; 95,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>91,85; 95,04</t>
+          <t>91,81; 95,15</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>91,4; 94,77</t>
+          <t>91,44; 94,9</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>85,36; 92,28</t>
+          <t>85,5; 92,55</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>92,21; 95,83</t>
+          <t>92,26; 95,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>90,4; 94,58</t>
+          <t>90,6; 94,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,5; 91,88</t>
+          <t>86,58; 91,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82,05; 90,21</t>
+          <t>81,66; 90,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>92,21; 96,11</t>
+          <t>92,26; 96,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>89,17; 93,9</t>
+          <t>89,25; 94,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>91,63; 95,55</t>
+          <t>91,44; 95,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,5; 89,65</t>
+          <t>47,19; 89,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>93,05; 95,54</t>
+          <t>92,84; 95,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>90,82; 93,72</t>
+          <t>90,73; 93,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>89,91; 93,1</t>
+          <t>89,94; 93,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>59,44; 88,51</t>
+          <t>62,33; 88,24</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>89,1; 93,55</t>
+          <t>89,36; 93,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,18; 95,44</t>
+          <t>91,56; 95,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,91; 92,63</t>
+          <t>88,27; 92,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>84,21; 90,36</t>
+          <t>83,98; 90,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>92,45; 96,23</t>
+          <t>92,65; 96,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>91,96; 95,76</t>
+          <t>91,75; 95,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>92,24; 95,63</t>
+          <t>91,94; 95,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>85,17; 89,76</t>
+          <t>85,21; 89,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>91,53; 94,44</t>
+          <t>91,6; 94,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>92,37; 95,08</t>
+          <t>92,25; 94,94</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>90,67; 93,69</t>
+          <t>90,82; 93,77</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>85,56; 89,42</t>
+          <t>85,34; 89,36</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>88,29; 93,95</t>
+          <t>88,71; 94,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>89,67; 94,36</t>
+          <t>89,91; 94,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,92; 91,91</t>
+          <t>86,8; 91,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>86,34; 96,0</t>
+          <t>85,94; 95,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,0; 96,1</t>
+          <t>92,17; 96,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,34; 95,73</t>
+          <t>91,2; 95,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,43; 94,83</t>
+          <t>90,5; 94,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>87,66; 91,6</t>
+          <t>87,54; 91,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91,04; 94,5</t>
+          <t>91,19; 94,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>91,41; 94,6</t>
+          <t>91,44; 94,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>89,59; 92,67</t>
+          <t>89,43; 92,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>87,83; 94,72</t>
+          <t>87,86; 94,42</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>89,02; 94,42</t>
+          <t>88,64; 94,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>87,41; 93,47</t>
+          <t>87,9; 93,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>88,96; 94,25</t>
+          <t>89,17; 94,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>81,88; 87,54</t>
+          <t>81,89; 87,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>89,41; 94,74</t>
+          <t>89,09; 94,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>93,42; 97,54</t>
+          <t>93,34; 97,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>91,22; 96,02</t>
+          <t>91,25; 96,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>85,09; 89,21</t>
+          <t>84,99; 89,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>90,28; 93,95</t>
+          <t>90,12; 93,88</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>91,54; 95,09</t>
+          <t>91,38; 94,9</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>91,02; 94,61</t>
+          <t>91,04; 94,63</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>84,11; 87,85</t>
+          <t>84,41; 87,74</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>88,25; 94,61</t>
+          <t>88,64; 94,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>92,69; 97,76</t>
+          <t>92,66; 97,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>93,58; 97,68</t>
+          <t>93,73; 97,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>85,52; 91,03</t>
+          <t>85,49; 91,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>92,36; 96,97</t>
+          <t>92,39; 96,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>95,08; 98,66</t>
+          <t>95,0; 98,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>92,25; 96,75</t>
+          <t>92,39; 96,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>89,57; 97,71</t>
+          <t>89,8; 97,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>91,73; 95,44</t>
+          <t>91,6; 95,26</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>94,81; 97,89</t>
+          <t>94,83; 97,9</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>93,66; 96,76</t>
+          <t>93,74; 96,75</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>88,85; 96,41</t>
+          <t>88,89; 95,21</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>91,48; 97,51</t>
+          <t>91,42; 97,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>90,14; 97,03</t>
+          <t>90,6; 97,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>91,0; 96,56</t>
+          <t>91,24; 96,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>86,29; 92,24</t>
+          <t>86,64; 92,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>94,32; 98,34</t>
+          <t>94,41; 98,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>93,45; 97,72</t>
+          <t>93,47; 97,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95,74; 99,13</t>
+          <t>95,95; 99,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>88,92; 93,11</t>
+          <t>88,8; 92,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>94,27; 97,62</t>
+          <t>94,47; 97,8</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>93,45; 96,92</t>
+          <t>93,27; 97,07</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>94,96; 97,82</t>
+          <t>95,13; 97,84</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>88,66; 92,04</t>
+          <t>88,67; 91,97</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>91,94; 93,78</t>
+          <t>91,95; 93,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>92,41; 94,13</t>
+          <t>92,41; 94,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>90,76; 92,69</t>
+          <t>90,79; 92,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>86,5; 90,64</t>
+          <t>86,46; 90,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>93,53; 95,16</t>
+          <t>93,46; 95,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>93,29; 94,94</t>
+          <t>93,35; 95,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>93,23; 94,79</t>
+          <t>93,29; 94,84</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>81,96; 90,48</t>
+          <t>81,31; 90,42</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>93,01; 94,18</t>
+          <t>92,99; 94,19</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>93,17; 94,35</t>
+          <t>93,13; 94,3</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>92,29; 93,51</t>
+          <t>92,24; 93,5</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>85,34; 89,8</t>
+          <t>84,52; 89,66</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>464952</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>429300</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>395879</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>351463</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>436280</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>397423</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>362495</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>286003</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>901232</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>826724</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>758374</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>637467</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>452129; 474230</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>418418; 437538</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>385204; 404041</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>323650; 371451</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>425055; 445584</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>385079; 407297</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>350005; 371843</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>271226; 296324</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>886118; 914856</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>811142; 840594</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>743544; 771717</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>609770; 660052</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1146</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1048</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>692100</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>638405</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>527164</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>365470</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>590420</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>559815</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>528350</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>392106</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1282520</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1198220</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1055513</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>757576</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>677735; 703639</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>622507; 650804</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>510444; 541357</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>345889; 381512</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>577063; 601343</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>544629; 574875</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>515317; 537980</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>241390; 459145</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1262733; 1297673</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1177033; 1216303</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1037094; 1073201</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>582786; 825052</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1182</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1204</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1227</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>585332</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>638310</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>604452</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>469390</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>650744</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>665329</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>621614</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>476115</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1236075</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1303639</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1226067</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>945505</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>570734; 597903</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>624294; 650876</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>588871; 619564</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>450433; 483932</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>638009; 662886</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>649554; 677321</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>607295; 632503</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>462250; 487603</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1215800; 1252193</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1282187; 1319485</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1205705; 1244889</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>920632; 964026</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1023</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>919</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1078</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1610</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>475008</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>568125</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>577928</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>804954</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>486418</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>577209</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>600735</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>638797</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>961425</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1145332</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1178664</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1443752</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>460533; 487975</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>552596; 580223</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>559815; 593285</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>762930; 848503</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>475254; 496192</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>561049; 587742</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>585514; 613114</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>623698; 653923</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>943669; 977231</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1124485; 1162496</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1155450; 1198240</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1406022; 1511026</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1452</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>356008</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>390241</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>439809</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>476684</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>372713</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>428056</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>466923</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>478366</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>728721</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>818298</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>906732</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>955050</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>342769; 365162</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>377486; 401100</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>426141; 451916</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>459592; 492827</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>359924; 382866</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>416991; 435144</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>453385; 477225</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>465648; 489701</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>712554; 742312</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>800699; 831477</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>887454; 922408</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>936268; 973204</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>604</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1255</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>269043</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>296549</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>321446</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>325944</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>325726</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>344011</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>358140</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>569497</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>594769</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>640561</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>679586</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>895441</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>259342; 276737</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>287058; 302753</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>313374; 327331</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>314732; 335593</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>316841; 332311</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>335362; 348856</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>349023; 365978</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>546334; 592641</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>582138; 605415</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>628526; 648847</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>667510; 688958</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>867993; 929764</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>808</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1220</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>200100</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>236006</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>241388</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>253567</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>323635</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>373175</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>392785</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>387801</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>523735</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>609181</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>634173</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>641368</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>191867; 204794</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>226374; 242514</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>233682; 247122</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>244974; 260800</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>315256; 329417</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>363582; 380185</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>383957; 396688</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>378122; 395093</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>513698; 531808</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>595840; 620122</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>624297; 642096</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>628332; 651698</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2986</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2998</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>2965</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>2976</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>3108</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>3102</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>3132</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>6094</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>6097</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>7776</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>3042541</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>3196935</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>3108065</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>3047473</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>3185936</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>3345019</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>3331043</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>3228685</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>6228477</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>6541954</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>6439108</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>6276158</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>3012122; 3070252</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>3165835; 3225120</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>3075473; 3139970</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>2991412; 3133167</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>3157099; 3211411</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>3316066; 3374605</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>3303809; 3358725</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>2977336; 3311088</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>6187214; 6267283</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>6498635; 6580603</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>6391082; 6478731</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>6019189; 6385285</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>